--- a/data/trans_dic/P25A$preocupacion-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04030245584317116</v>
+        <v>0.0391927970525738</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06306845157495972</v>
+        <v>0.05785758085812841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04024343548850058</v>
+        <v>0.03905305492223136</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1108021266616052</v>
+        <v>0.1057598652233451</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0189179176840862</v>
+        <v>0.01827611523484647</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04403469790054598</v>
+        <v>0.05444849470935454</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09306914235800462</v>
+        <v>0.09813600839505886</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04579080978121665</v>
+        <v>0.04391951542428064</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2228954334704925</v>
+        <v>0.2057808172330135</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2220377372550339</v>
+        <v>0.2190730362739186</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1705995175913378</v>
+        <v>0.196127038526678</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3545294738737657</v>
+        <v>0.3436103788829017</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4038757219965923</v>
+        <v>0.3922564333132037</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1770022703181225</v>
+        <v>0.1664106697139275</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2092334726904549</v>
+        <v>0.2120428890270883</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2484590094652394</v>
+        <v>0.243531436696013</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1480872169639876</v>
+        <v>0.1373855902009214</v>
       </c>
     </row>
     <row r="7">
@@ -784,29 +784,29 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01868668077604465</v>
+        <v>0.01832847873055032</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01692060161170952</v>
+        <v>0.01663185715203066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09828381817550555</v>
+        <v>0.09304676365771239</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>0.01675320766868726</v>
+        <v>0.01694744221346725</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03288498014690628</v>
+        <v>0.03187140189797313</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01543364506417092</v>
+        <v>0.01497908818814949</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02317409359089967</v>
+        <v>0.02308063115058624</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08328726611923078</v>
+        <v>0.09162016399803583</v>
       </c>
     </row>
     <row r="9">
@@ -817,29 +817,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1038544544500553</v>
+        <v>0.1089697118631081</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09895887102089158</v>
+        <v>0.09884562541416968</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2803574167718879</v>
+        <v>0.2829331386272807</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.1445621289952865</v>
+        <v>0.1420727233433371</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2853009311234082</v>
+        <v>0.2539568427147526</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08849556139274958</v>
+        <v>0.08833841644953842</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09143810834298345</v>
+        <v>0.09004752222776248</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2313294581824333</v>
+        <v>0.2365939711608404</v>
       </c>
     </row>
     <row r="10">
@@ -889,29 +889,29 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02894821537582777</v>
+        <v>0.02867690884639616</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1678376460559959</v>
+        <v>0.1744605010619023</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.140146424261319</v>
+        <v>0.1325282375544159</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02376100836447701</v>
+        <v>0.02415017164510617</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008106573466611174</v>
+        <v>0.007957483661758172</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1918856548692436</v>
+        <v>0.191246286369049</v>
       </c>
     </row>
     <row r="12">
@@ -922,29 +922,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.192602638168128</v>
+        <v>0.1882928554203017</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05638274300844918</v>
+        <v>0.05639142651655345</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3832674092773612</v>
+        <v>0.3945365897326055</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.2990215864395854</v>
+        <v>0.2806195792805424</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4495785983655674</v>
+        <v>0.4426729821206238</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1619219387811972</v>
+        <v>0.1630753991176021</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08747209245441831</v>
+        <v>0.08625001220074027</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3677582204203063</v>
+        <v>0.3695434745169966</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02640138173522902</v>
+        <v>0.02619162160143609</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02889321702978817</v>
+        <v>0.02883324419491105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04441759475477285</v>
+        <v>0.0444291725104996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02596065248011587</v>
+        <v>0.04093486889182842</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01940271300016127</v>
+        <v>0.01912268574564678</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02056532548687912</v>
+        <v>0.0204971812257056</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05043956722378659</v>
+        <v>0.04409669985611854</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03315800518337676</v>
+        <v>0.03271207661092596</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04412333016434436</v>
+        <v>0.05024995062228638</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1516777749678197</v>
+        <v>0.1494727558546527</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1616621594749601</v>
+        <v>0.161225240499652</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1845255564680986</v>
+        <v>0.1736259350141851</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2498559927524151</v>
+        <v>0.2632081385295092</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1683356396594773</v>
+        <v>0.1681650709406381</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2326388268141611</v>
+        <v>0.2260394808054672</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1566187418445241</v>
+        <v>0.1586044654801712</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1357241371735027</v>
+        <v>0.1258494687503422</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1532714893398378</v>
+        <v>0.1620615224736914</v>
       </c>
     </row>
     <row r="16">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.03991249691937945</v>
+        <v>0.04073482232197898</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.04164018154807567</v>
+        <v>0.03923964397454347</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.2266987181472773</v>
+        <v>0.219048008469929</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2011261429053909</v>
+        <v>0.1621136015606272</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.2136460215300174</v>
+        <v>0.2321131308043299</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.1823391796254097</v>
+        <v>0.1772990918380239</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1122654569510445</v>
+        <v>0.1050163856419158</v>
       </c>
     </row>
     <row r="19">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05773531529848964</v>
+        <v>0.05643045297189852</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01264962989447409</v>
+        <v>0.02303236060646523</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01760896231387245</v>
+        <v>0.01750721893134899</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1108774210375183</v>
+        <v>0.1099524947382805</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09849548700027906</v>
+        <v>0.08705430016902395</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0274865359072934</v>
+        <v>0.02009286749369827</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02668099871420874</v>
+        <v>0.02596977954319508</v>
       </c>
     </row>
     <row r="21">
@@ -1231,31 +1231,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2451722307197421</v>
+        <v>0.2614569028225654</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1220088157066429</v>
+        <v>0.1236029151952753</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1640152722220679</v>
+        <v>0.1616857684008651</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.554706525874736</v>
+        <v>0.5103809706758953</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.183743742334561</v>
+        <v>0.268540262964359</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3526632503516838</v>
+        <v>0.3376630706675652</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2784699055569763</v>
+        <v>0.2623579258500554</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.123057635308475</v>
+        <v>0.1155246644852375</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1579732919735425</v>
+        <v>0.1520086546480332</v>
       </c>
     </row>
     <row r="22">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06587673739733584</v>
+        <v>0.06860183975391276</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04746159163509425</v>
+        <v>0.04442731055635236</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08379175774288099</v>
+        <v>0.0900309146647169</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02263570455391387</v>
+        <v>0.0224578358046475</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03830885268834125</v>
+        <v>0.03660954761742866</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06208138901785926</v>
+        <v>0.06212186306433857</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0445725487096954</v>
+        <v>0.04426605572136863</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.079072541997516</v>
+        <v>0.08333815333617249</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2111478006492048</v>
+        <v>0.2055938406671632</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.150088445110957</v>
+        <v>0.1339805484878062</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2267443750432721</v>
+        <v>0.2349321109993088</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2458858043566082</v>
+        <v>0.259232653262571</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1343219309652531</v>
+        <v>0.1286485993695942</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1612044030834367</v>
+        <v>0.163616194569102</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1790951786531955</v>
+        <v>0.183139857815111</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1150161009988491</v>
+        <v>0.1145607884220888</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1821979953335897</v>
+        <v>0.1820583464649495</v>
       </c>
     </row>
     <row r="25">
@@ -1414,29 +1414,29 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0208368500124078</v>
+        <v>0.02099892813788365</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06243047895544241</v>
+        <v>0.06557499296908866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01860903659973017</v>
+        <v>0.01887183254851265</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0367991488180965</v>
+        <v>0.0336733570489219</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02959893328661446</v>
+        <v>0.02938279028630542</v>
       </c>
       <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="n">
-        <v>0.03365355330529654</v>
+        <v>0.03282423031982315</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.06272976607725241</v>
+        <v>0.06254834216459992</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01109405166828165</v>
+        <v>0.01158402105364204</v>
       </c>
     </row>
     <row r="27">
@@ -1447,29 +1447,29 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0986319089381871</v>
+        <v>0.0983009836915394</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1764614157461817</v>
+        <v>0.179760679048194</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1072063493333681</v>
+        <v>0.1102964531766081</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.178598478251578</v>
+        <v>0.1763791309702964</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1677040198768404</v>
+        <v>0.1590696682539592</v>
       </c>
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="n">
-        <v>0.09897396126837865</v>
+        <v>0.102932303728214</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1495925834604051</v>
+        <v>0.1535448312445494</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06232984825989316</v>
+        <v>0.06779411264554264</v>
       </c>
     </row>
     <row r="28">
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05715365578875142</v>
+        <v>0.05794984660646149</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05839703481592941</v>
+        <v>0.05980414876009399</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.09424151453348434</v>
+        <v>0.0942619723759392</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05250905725773924</v>
+        <v>0.04993539217509981</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05663635235023463</v>
+        <v>0.0542529977100069</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.05576816226675835</v>
+        <v>0.0529754594265789</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06079764237681053</v>
+        <v>0.06098240817162693</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.06428894628481133</v>
+        <v>0.06337019256574011</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0877422074895495</v>
+        <v>0.08633044215995492</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.09786552581809721</v>
+        <v>0.1010134983900537</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.09904152582770405</v>
+        <v>0.09913319250345164</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1496453034013629</v>
+        <v>0.1483043487516094</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1257362427040537</v>
+        <v>0.1234401494342848</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1176956717851078</v>
+        <v>0.1137672476144442</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1145260989832519</v>
+        <v>0.1139416391904308</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.09693515835949419</v>
+        <v>0.09692007762438039</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.09844012968822373</v>
+        <v>0.09726468729139473</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1286444819565619</v>
+        <v>0.1275941704749428</v>
       </c>
     </row>
     <row r="31">
@@ -1811,31 +1811,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1872</v>
+        <v>1820</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5115</v>
+        <v>4692</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3178</v>
+        <v>3084</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4436</v>
+        <v>4234</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>983</v>
+        <v>950</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2929</v>
+        <v>3622</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11274</v>
+        <v>11888</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5996</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="7">
@@ -1846,31 +1846,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10353</v>
+        <v>9558</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18007</v>
+        <v>17767</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13471</v>
+        <v>15486</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7116</v>
+        <v>6897</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16168</v>
+        <v>15703</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9201</v>
+        <v>8650</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13919</v>
+        <v>14106</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30097</v>
+        <v>29500</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19391</v>
+        <v>17989</v>
       </c>
     </row>
     <row r="8">
@@ -1955,29 +1955,29 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2127</v>
+        <v>2087</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2046</v>
+        <v>2012</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7109</v>
+        <v>6730</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>963</v>
+        <v>934</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2156</v>
+        <v>2093</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4189</v>
+        <v>4172</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8464</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="11">
@@ -1988,29 +1988,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11824</v>
+        <v>12406</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11968</v>
+        <v>11955</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20278</v>
+        <v>20464</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>8647</v>
+        <v>8498</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8357</v>
+        <v>7439</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12363</v>
+        <v>12341</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16528</v>
+        <v>16277</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>23508</v>
+        <v>24043</v>
       </c>
     </row>
     <row r="12">
@@ -2095,29 +2095,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1845</v>
+        <v>1828</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10407</v>
+        <v>10818</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3869</v>
+        <v>3659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1853</v>
+        <v>1883</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>17196</v>
+        <v>17139</v>
       </c>
     </row>
     <row r="15">
@@ -2128,29 +2128,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12276</v>
+        <v>12001</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23765</v>
+        <v>24464</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>9802</v>
+        <v>9199</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12412</v>
+        <v>12221</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12626</v>
+        <v>12716</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10066</v>
+        <v>9926</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>32957</v>
+        <v>33117</v>
       </c>
     </row>
     <row r="16">
@@ -2235,31 +2235,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2003</v>
+        <v>1987</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3046</v>
+        <v>3040</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>978</v>
+        <v>1543</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5728</v>
+        <v>5008</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5038</v>
+        <v>4970</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5814</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="19">
@@ -2270,31 +2270,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11509</v>
+        <v>11342</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17045</v>
+        <v>16999</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16071</v>
+        <v>15122</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9415</v>
+        <v>9918</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7826</v>
+        <v>7818</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10390</v>
+        <v>10096</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17786</v>
+        <v>18011</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20620</v>
+        <v>19120</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20195</v>
+        <v>21353</v>
       </c>
     </row>
     <row r="20">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>2013</v>
+        <v>2054</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
@@ -2392,7 +2392,7 @@
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>3218</v>
+        <v>3032</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
@@ -2407,22 +2407,22 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>11431</v>
+        <v>11045</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6381</v>
+        <v>5143</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>5737</v>
+        <v>6233</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>14090</v>
+        <v>13701</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5480</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="24">
@@ -2507,16 +2507,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3052</v>
+        <v>2983</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1051</v>
+        <v>1914</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2086</v>
+        <v>2068</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2525,13 +2525,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7060</v>
+        <v>6240</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2885</v>
+        <v>2109</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1632</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="27">
@@ -2542,31 +2542,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12962</v>
+        <v>13823</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>10140</v>
+        <v>10273</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7278</v>
+        <v>7175</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10435</v>
+        <v>9601</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4015</v>
+        <v>5867</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5925</v>
+        <v>5673</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>19961</v>
+        <v>18806</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>12916</v>
+        <v>12126</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>9664</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="28">
@@ -2651,31 +2651,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>6071</v>
+        <v>6322</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7714</v>
+        <v>7221</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>10634</v>
+        <v>11426</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2078</v>
+        <v>2062</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3235</v>
+        <v>3091</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>7762</v>
+        <v>7767</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>11337</v>
+        <v>11259</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>16712</v>
+        <v>17613</v>
       </c>
     </row>
     <row r="31">
@@ -2686,31 +2686,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19459</v>
+        <v>18948</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>24394</v>
+        <v>21776</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>28776</v>
+        <v>29815</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>8082</v>
+        <v>8521</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12333</v>
+        <v>11812</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>13612</v>
+        <v>13815</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>22392</v>
+        <v>22898</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>29254</v>
+        <v>29138</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>38507</v>
+        <v>38477</v>
       </c>
     </row>
     <row r="32">
@@ -2795,29 +2795,29 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2886</v>
+        <v>2909</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>8130</v>
+        <v>8540</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1900</v>
+        <v>1927</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2656</v>
+        <v>2431</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1981</v>
+        <v>1967</v>
       </c>
       <c r="H34" s="6" t="inlineStr"/>
       <c r="I34" s="6" t="n">
-        <v>7091</v>
+        <v>6916</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>12367</v>
+        <v>12332</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1842</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="35">
@@ -2828,29 +2828,29 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>13662</v>
+        <v>13616</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>22980</v>
+        <v>23410</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>10946</v>
+        <v>11261</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>12891</v>
+        <v>12731</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>11224</v>
+        <v>10646</v>
       </c>
       <c r="H35" s="6" t="inlineStr"/>
       <c r="I35" s="6" t="n">
-        <v>20853</v>
+        <v>21687</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>29493</v>
+        <v>30272</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>10349</v>
+        <v>11257</v>
       </c>
     </row>
     <row r="36">
@@ -2935,31 +2935,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>35696</v>
+        <v>36194</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>47656</v>
+        <v>48805</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>57063</v>
+        <v>57075</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>13166</v>
+        <v>12521</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>21894</v>
+        <v>20972</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>18727</v>
+        <v>17790</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>53216</v>
+        <v>53378</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>77316</v>
+        <v>76211</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>82592</v>
+        <v>81263</v>
       </c>
     </row>
     <row r="39">
@@ -2970,31 +2970,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>61124</v>
+        <v>63090</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>80825</v>
+        <v>80900</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>90609</v>
+        <v>89798</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>31526</v>
+        <v>30951</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>45497</v>
+        <v>43978</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>38459</v>
+        <v>38263</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>84848</v>
+        <v>84834</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>118388</v>
+        <v>116974</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>121094</v>
+        <v>120105</v>
       </c>
     </row>
     <row r="40">
